--- a/medicine/Sexualité et sexologie/Et_la_tendresse___Bordel_!/Et_la_tendresse___Bordel_!.xlsx
+++ b/medicine/Sexualité et sexologie/Et_la_tendresse___Bordel_!/Et_la_tendresse___Bordel_!.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Et_la_tendresse_%3F_Bordel_!</t>
+          <t>Et_la_tendresse_?_Bordel_!</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Et la tendresse ? Bordel ! est un film français réalisé par Patrick Schulmann, sorti en 1979.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Et_la_tendresse_%3F_Bordel_!</t>
+          <t>Et_la_tendresse_?_Bordel_!</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Trois couples sont en quête de bonheur :
 Un couple « phallo » : François (Jean-Luc Bideau), directeur d'un club de rencontre peu orthodoxe, l'Eros Club, et Carole (Marie-Catherine Conti) sa maîtresse, entretenue et dépendante ;
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Et_la_tendresse_%3F_Bordel_!</t>
+          <t>Et_la_tendresse_?_Bordel_!</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre : Et la tendresse ? Bordel !
 Réalisation : Patrick Schulmann
@@ -571,7 +587,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Et_la_tendresse_%3F_Bordel_!</t>
+          <t>Et_la_tendresse_?_Bordel_!</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -589,7 +605,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">               
 Jean-Luc Bideau : Le couple phallocrate - François
@@ -642,7 +660,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Et_la_tendresse_%3F_Bordel_!</t>
+          <t>Et_la_tendresse_?_Bordel_!</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -660,7 +678,9 @@
           <t>À noter</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Répliques célèbres
 François à Carole : « Allo Carole ? Tu peux te laver les fesses, j'arrive. »
